--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd HH:mm:ss UTC"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,9 +378,17 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B2">
+        <v>116.2228404411629</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
         <v>45093</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>123.1760880225269</v>
       </c>
     </row>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,17 +378,25 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B2">
-        <v>116.2228404411629</v>
+        <v>119.6762458728812</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B3">
+        <v>116.2228404411629</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
         <v>45093</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>123.1760880225269</v>
       </c>
     </row>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,25 +378,33 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="B2">
-        <v>119.6762458728812</v>
+        <v>118.5518367263323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B3">
-        <v>116.2228404411629</v>
+        <v>119.6762458728812</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B4">
+        <v>116.2228404411629</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
         <v>45093</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>123.1760880225269</v>
       </c>
     </row>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,33 +378,41 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B2">
-        <v>118.5518367263323</v>
+        <v>115.271466204468</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="B3">
-        <v>119.6762458728812</v>
+        <v>118.5518367263323</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B4">
-        <v>116.2228404411629</v>
+        <v>119.6762458728812</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B5">
+        <v>116.2228404411629</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
         <v>45093</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>123.1760880225269</v>
       </c>
     </row>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,33 +386,41 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B3">
-        <v>118.5518367263323</v>
+        <v>115.271466204468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="B4">
-        <v>119.6762458728812</v>
+        <v>118.5518367263323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B5">
-        <v>116.2228404411629</v>
+        <v>119.6762458728812</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B6">
+        <v>116.2228404411629</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
         <v>45093</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>123.1760880225269</v>
       </c>
     </row>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -394,33 +394,41 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B4">
-        <v>118.5518367263323</v>
+        <v>115.271466204468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="B5">
-        <v>119.6762458728812</v>
+        <v>118.5518367263323</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B6">
-        <v>116.2228404411629</v>
+        <v>119.6762458728812</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B7">
+        <v>116.2228404411629</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
         <v>45093</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>123.1760880225269</v>
       </c>
     </row>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,10 +378,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="B2">
-        <v>115.271466204468</v>
+        <v>118.0761777952978</v>
       </c>
     </row>
     <row r="3">
@@ -402,34 +402,34 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B5">
-        <v>118.5518367263323</v>
+        <v>115.271466204468</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="B6">
-        <v>119.6762458728812</v>
+        <v>118.5518367263323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B7">
-        <v>116.2228404411629</v>
+        <v>119.6762458728812</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45093</v>
+        <v>45097</v>
       </c>
       <c r="B8">
-        <v>123.1760880225269</v>
+        <v>116.2228404411629</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,18 +378,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45104</v>
+        <v>45108</v>
       </c>
       <c r="B2">
-        <v>118.0761777952978</v>
+        <v>115.8507342614528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="B3">
-        <v>115.271466204468</v>
+        <v>118.0761777952978</v>
       </c>
     </row>
     <row r="4">
@@ -410,26 +410,26 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B6">
-        <v>118.5518367263323</v>
+        <v>115.271466204468</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="B7">
-        <v>119.6762458728812</v>
+        <v>118.5518367263323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45097</v>
+        <v>45098</v>
       </c>
       <c r="B8">
-        <v>116.2228404411629</v>
+        <v>119.6762458728812</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -386,18 +386,18 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45104</v>
+        <v>45108</v>
       </c>
       <c r="B3">
-        <v>118.0761777952978</v>
+        <v>115.8507342614528</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="B4">
-        <v>115.271466204468</v>
+        <v>118.0761777952978</v>
       </c>
     </row>
     <row r="5">
@@ -418,18 +418,18 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B7">
-        <v>118.5518367263323</v>
+        <v>115.271466204468</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45098</v>
+        <v>45100</v>
       </c>
       <c r="B8">
-        <v>119.6762458728812</v>
+        <v>118.5518367263323</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,10 +378,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="B2">
-        <v>115.8507342614528</v>
+        <v>115.5717509626911</v>
       </c>
     </row>
     <row r="3">
@@ -394,18 +394,18 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45104</v>
+        <v>45108</v>
       </c>
       <c r="B4">
-        <v>118.0761777952978</v>
+        <v>115.8507342614528</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="B5">
-        <v>115.271466204468</v>
+        <v>118.0761777952978</v>
       </c>
     </row>
     <row r="6">
@@ -426,10 +426,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45100</v>
+        <v>45101</v>
       </c>
       <c r="B8">
-        <v>118.5518367263323</v>
+        <v>115.271466204468</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,18 +378,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B2">
-        <v>115.5717509626911</v>
+        <v>119.6544727757372</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="B3">
-        <v>115.8507342614528</v>
+        <v>115.5717509626911</v>
       </c>
     </row>
     <row r="4">
@@ -402,18 +402,18 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45104</v>
+        <v>45108</v>
       </c>
       <c r="B5">
-        <v>118.0761777952978</v>
+        <v>115.8507342614528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="B6">
-        <v>115.271466204468</v>
+        <v>118.0761777952978</v>
       </c>
     </row>
     <row r="7">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,26 +378,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B2">
-        <v>119.6544727757372</v>
+        <v>114.7397908086847</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B3">
-        <v>115.5717509626911</v>
+        <v>119.6544727757372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="B4">
-        <v>115.8507342614528</v>
+        <v>115.5717509626911</v>
       </c>
     </row>
     <row r="5">
@@ -410,18 +410,18 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45104</v>
+        <v>45108</v>
       </c>
       <c r="B6">
-        <v>118.0761777952978</v>
+        <v>115.8507342614528</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="B7">
-        <v>115.271466204468</v>
+        <v>118.0761777952978</v>
       </c>
     </row>
     <row r="8">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,34 +378,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B2">
-        <v>114.7397908086847</v>
+        <v>117.2449052692511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B3">
-        <v>119.6544727757372</v>
+        <v>114.7397908086847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B4">
-        <v>115.5717509626911</v>
+        <v>119.6544727757372</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="B5">
-        <v>115.8507342614528</v>
+        <v>115.5717509626911</v>
       </c>
     </row>
     <row r="6">
@@ -418,18 +418,18 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45104</v>
+        <v>45108</v>
       </c>
       <c r="B7">
-        <v>118.0761777952978</v>
+        <v>115.8507342614528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="B8">
-        <v>115.271466204468</v>
+        <v>118.0761777952978</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,42 +378,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B2">
-        <v>117.2449052692511</v>
+        <v>119.8006009623895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B3">
-        <v>114.7397908086847</v>
+        <v>117.2449052692511</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B4">
-        <v>119.6544727757372</v>
+        <v>114.7397908086847</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B5">
-        <v>115.5717509626911</v>
+        <v>119.6544727757372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="B6">
-        <v>115.8507342614528</v>
+        <v>115.5717509626911</v>
       </c>
     </row>
     <row r="7">
@@ -426,10 +426,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45104</v>
+        <v>45108</v>
       </c>
       <c r="B8">
-        <v>118.0761777952978</v>
+        <v>115.8507342614528</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -386,42 +386,42 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B3">
-        <v>117.2449052692511</v>
+        <v>119.8006009623895</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B4">
-        <v>114.7397908086847</v>
+        <v>117.2449052692511</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B5">
-        <v>119.6544727757372</v>
+        <v>114.7397908086847</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B6">
-        <v>115.5717509626911</v>
+        <v>119.6544727757372</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="B7">
-        <v>115.8507342614528</v>
+        <v>115.5717509626911</v>
       </c>
     </row>
     <row r="8">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -394,42 +394,42 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B4">
-        <v>117.2449052692511</v>
+        <v>119.8006009623895</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B5">
-        <v>114.7397908086847</v>
+        <v>117.2449052692511</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B6">
-        <v>119.6544727757372</v>
+        <v>114.7397908086847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B7">
-        <v>115.5717509626911</v>
+        <v>119.6544727757372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45108</v>
+        <v>45111</v>
       </c>
       <c r="B8">
-        <v>115.8507342614528</v>
+        <v>115.5717509626911</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,10 +378,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45115</v>
+        <v>45119</v>
       </c>
       <c r="B2">
-        <v>119.8006009623895</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="3">
@@ -402,34 +402,34 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B5">
-        <v>117.2449052692511</v>
+        <v>119.8006009623895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B6">
-        <v>114.7397908086847</v>
+        <v>117.2449052692511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B7">
-        <v>119.6544727757372</v>
+        <v>114.7397908086847</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45111</v>
+        <v>45112</v>
       </c>
       <c r="B8">
-        <v>115.5717509626911</v>
+        <v>119.6544727757372</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,18 +378,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B2">
-        <v>112.86</v>
+        <v>116.7977159556352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45115</v>
+        <v>45119</v>
       </c>
       <c r="B3">
-        <v>119.8006009623895</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="4">
@@ -410,26 +410,26 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B6">
-        <v>117.2449052692511</v>
+        <v>119.8006009623895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B7">
-        <v>114.7397908086847</v>
+        <v>117.2449052692511</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45112</v>
+        <v>45113</v>
       </c>
       <c r="B8">
-        <v>119.6544727757372</v>
+        <v>114.7397908086847</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,26 +378,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B2">
-        <v>116.7977159556352</v>
+        <v>121.3117941406225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B3">
-        <v>112.86</v>
+        <v>116.7977159556352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45115</v>
+        <v>45119</v>
       </c>
       <c r="B4">
-        <v>119.8006009623895</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="5">
@@ -418,18 +418,18 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B7">
-        <v>117.2449052692511</v>
+        <v>119.8006009623895</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45113</v>
+        <v>45114</v>
       </c>
       <c r="B8">
-        <v>114.7397908086847</v>
+        <v>117.2449052692511</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,34 +378,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B2">
-        <v>121.3117941406225</v>
+        <v>120.132399991325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B3">
-        <v>116.7977159556352</v>
+        <v>121.3117941406225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B4">
-        <v>112.86</v>
+        <v>116.7977159556352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45115</v>
+        <v>45119</v>
       </c>
       <c r="B5">
-        <v>119.8006009623895</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="6">
@@ -426,10 +426,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45114</v>
+        <v>45115</v>
       </c>
       <c r="B8">
-        <v>117.2449052692511</v>
+        <v>119.8006009623895</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -386,34 +386,34 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B3">
-        <v>121.3117941406225</v>
+        <v>120.132399991325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B4">
-        <v>116.7977159556352</v>
+        <v>121.3117941406225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B5">
-        <v>112.86</v>
+        <v>116.7977159556352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45115</v>
+        <v>45119</v>
       </c>
       <c r="B6">
-        <v>119.8006009623895</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="7">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -394,34 +394,34 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B4">
-        <v>121.3117941406225</v>
+        <v>120.132399991325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B5">
-        <v>116.7977159556352</v>
+        <v>121.3117941406225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B6">
-        <v>112.86</v>
+        <v>116.7977159556352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45115</v>
+        <v>45119</v>
       </c>
       <c r="B7">
-        <v>119.8006009623895</v>
+        <v>112.86</v>
       </c>
     </row>
     <row r="8">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,10 +378,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45122</v>
+        <v>45125</v>
       </c>
       <c r="B2">
-        <v>120.132399991325</v>
+        <v>113.0906638929349</v>
       </c>
     </row>
     <row r="3">
@@ -402,34 +402,34 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B5">
-        <v>121.3117941406225</v>
+        <v>120.132399991325</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B6">
-        <v>116.7977159556352</v>
+        <v>121.3117941406225</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B7">
-        <v>112.86</v>
+        <v>116.7977159556352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45115</v>
+        <v>45119</v>
       </c>
       <c r="B8">
-        <v>119.8006009623895</v>
+        <v>112.86</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,18 +378,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B2">
-        <v>113.0906638929349</v>
+        <v>115.7214573109493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45122</v>
+        <v>45125</v>
       </c>
       <c r="B3">
-        <v>120.132399991325</v>
+        <v>113.0906638929349</v>
       </c>
     </row>
     <row r="4">
@@ -410,26 +410,26 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B6">
-        <v>121.3117941406225</v>
+        <v>120.132399991325</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B7">
-        <v>116.7977159556352</v>
+        <v>121.3117941406225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45119</v>
+        <v>45120</v>
       </c>
       <c r="B8">
-        <v>112.86</v>
+        <v>116.7977159556352</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,26 +378,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B2">
-        <v>115.7214573109493</v>
+        <v>105.8921295752545</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B3">
-        <v>113.0906638929349</v>
+        <v>115.7214573109493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45122</v>
+        <v>45125</v>
       </c>
       <c r="B4">
-        <v>120.132399991325</v>
+        <v>113.0906638929349</v>
       </c>
     </row>
     <row r="5">
@@ -418,18 +418,18 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B7">
-        <v>121.3117941406225</v>
+        <v>120.132399991325</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45120</v>
+        <v>45121</v>
       </c>
       <c r="B8">
-        <v>116.7977159556352</v>
+        <v>121.3117941406225</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,34 +378,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B2">
-        <v>105.8921295752545</v>
+        <v>105.6524805630045</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B3">
-        <v>115.7214573109493</v>
+        <v>105.8921295752545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B4">
-        <v>113.0906638929349</v>
+        <v>115.7214573109493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45122</v>
+        <v>45125</v>
       </c>
       <c r="B5">
-        <v>120.132399991325</v>
+        <v>113.0906638929349</v>
       </c>
     </row>
     <row r="6">
@@ -426,10 +426,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45121</v>
+        <v>45122</v>
       </c>
       <c r="B8">
-        <v>121.3117941406225</v>
+        <v>120.132399991325</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,42 +378,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B2">
-        <v>105.6524805630045</v>
+        <v>101.9959454176757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B3">
-        <v>105.8921295752545</v>
+        <v>105.6524805630045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B4">
-        <v>115.7214573109493</v>
+        <v>105.8921295752545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B5">
-        <v>113.0906638929349</v>
+        <v>115.7214573109493</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45122</v>
+        <v>45125</v>
       </c>
       <c r="B6">
-        <v>120.132399991325</v>
+        <v>113.0906638929349</v>
       </c>
     </row>
     <row r="7">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -386,42 +386,42 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B3">
-        <v>105.6524805630045</v>
+        <v>101.9959454176757</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B4">
-        <v>105.8921295752545</v>
+        <v>105.6524805630045</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B5">
-        <v>115.7214573109493</v>
+        <v>105.8921295752545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B6">
-        <v>113.0906638929349</v>
+        <v>115.7214573109493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45122</v>
+        <v>45125</v>
       </c>
       <c r="B7">
-        <v>120.132399991325</v>
+        <v>113.0906638929349</v>
       </c>
     </row>
     <row r="8">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -394,42 +394,42 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B4">
-        <v>105.6524805630045</v>
+        <v>101.9959454176757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B5">
-        <v>105.8921295752545</v>
+        <v>105.6524805630045</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B6">
-        <v>115.7214573109493</v>
+        <v>105.8921295752545</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B7">
-        <v>113.0906638929349</v>
+        <v>115.7214573109493</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45122</v>
+        <v>45125</v>
       </c>
       <c r="B8">
-        <v>120.132399991325</v>
+        <v>113.0906638929349</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,10 +378,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B2">
-        <v>101.9959454176757</v>
+        <v>93.98961399101373</v>
       </c>
     </row>
     <row r="3">
@@ -402,34 +402,34 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B5">
-        <v>105.6524805630045</v>
+        <v>101.9959454176757</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B6">
-        <v>105.8921295752545</v>
+        <v>105.6524805630045</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B7">
-        <v>115.7214573109493</v>
+        <v>105.8921295752545</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45125</v>
+        <v>45126</v>
       </c>
       <c r="B8">
-        <v>113.0906638929349</v>
+        <v>115.7214573109493</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,18 +378,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B2">
-        <v>93.98961399101373</v>
+        <v>100.3763368555667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B3">
-        <v>101.9959454176757</v>
+        <v>93.98961399101373</v>
       </c>
     </row>
     <row r="4">
@@ -410,26 +410,26 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B6">
-        <v>105.6524805630045</v>
+        <v>101.9959454176757</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B7">
-        <v>105.8921295752545</v>
+        <v>105.6524805630045</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45126</v>
+        <v>45127</v>
       </c>
       <c r="B8">
-        <v>115.7214573109493</v>
+        <v>105.8921295752545</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,26 +378,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B2">
-        <v>100.3763368555667</v>
+        <v>91.55503872110999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B3">
-        <v>93.98961399101373</v>
+        <v>100.3763368555667</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B4">
-        <v>101.9959454176757</v>
+        <v>93.98961399101373</v>
       </c>
     </row>
     <row r="5">
@@ -418,18 +418,18 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B7">
-        <v>105.6524805630045</v>
+        <v>101.9959454176757</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45127</v>
+        <v>45128</v>
       </c>
       <c r="B8">
-        <v>105.8921295752545</v>
+        <v>105.6524805630045</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,34 +378,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B2">
-        <v>91.55503872110999</v>
+        <v>88.72668450194998</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B3">
-        <v>100.3763368555667</v>
+        <v>91.55503872110999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B4">
-        <v>93.98961399101373</v>
+        <v>100.3763368555667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B5">
-        <v>101.9959454176757</v>
+        <v>93.98961399101373</v>
       </c>
     </row>
     <row r="6">
@@ -426,10 +426,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45128</v>
+        <v>45129</v>
       </c>
       <c r="B8">
-        <v>105.6524805630045</v>
+        <v>101.9959454176757</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,42 +378,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B2">
-        <v>88.72668450194998</v>
+        <v>85.25790017809645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B3">
-        <v>91.55503872110999</v>
+        <v>88.72668450194998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B4">
-        <v>100.3763368555667</v>
+        <v>91.55503872110999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B5">
-        <v>93.98961399101373</v>
+        <v>100.3763368555667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B6">
-        <v>101.9959454176757</v>
+        <v>93.98961399101373</v>
       </c>
     </row>
     <row r="7">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -386,42 +386,42 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B3">
-        <v>88.72668450194998</v>
+        <v>85.25790017809645</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B4">
-        <v>91.55503872110999</v>
+        <v>88.72668450194998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B5">
-        <v>100.3763368555667</v>
+        <v>91.55503872110999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B6">
-        <v>93.98961399101373</v>
+        <v>100.3763368555667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B7">
-        <v>101.9959454176757</v>
+        <v>93.98961399101373</v>
       </c>
     </row>
     <row r="8">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -394,42 +394,42 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B4">
-        <v>88.72668450194998</v>
+        <v>85.25790017809645</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B5">
-        <v>91.55503872110999</v>
+        <v>88.72668450194998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B6">
-        <v>100.3763368555667</v>
+        <v>91.55503872110999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B7">
-        <v>93.98961399101373</v>
+        <v>100.3763368555667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45129</v>
+        <v>45132</v>
       </c>
       <c r="B8">
-        <v>101.9959454176757</v>
+        <v>93.98961399101373</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,10 +378,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45136</v>
+        <v>45139</v>
       </c>
       <c r="B2">
-        <v>85.25790017809645</v>
+        <v>85.92618656023133</v>
       </c>
     </row>
     <row r="3">
@@ -402,34 +402,34 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B5">
-        <v>88.72668450194998</v>
+        <v>85.25790017809645</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B6">
-        <v>91.55503872110999</v>
+        <v>88.72668450194998</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B7">
-        <v>100.3763368555667</v>
+        <v>91.55503872110999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45132</v>
+        <v>45133</v>
       </c>
       <c r="B8">
-        <v>93.98961399101373</v>
+        <v>100.3763368555667</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,18 +378,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B2">
-        <v>85.92618656023133</v>
+        <v>85.65839096246287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45136</v>
+        <v>45139</v>
       </c>
       <c r="B3">
-        <v>85.25790017809645</v>
+        <v>85.92618656023133</v>
       </c>
     </row>
     <row r="4">
@@ -410,26 +410,26 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B6">
-        <v>88.72668450194998</v>
+        <v>85.25790017809645</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B7">
-        <v>91.55503872110999</v>
+        <v>88.72668450194998</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45133</v>
+        <v>45134</v>
       </c>
       <c r="B8">
-        <v>100.3763368555667</v>
+        <v>91.55503872110999</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,26 +378,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B2">
-        <v>85.65839096246287</v>
+        <v>84.53102172061784</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B3">
-        <v>85.92618656023133</v>
+        <v>85.65839096246287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45136</v>
+        <v>45139</v>
       </c>
       <c r="B4">
-        <v>85.25790017809645</v>
+        <v>85.92618656023133</v>
       </c>
     </row>
     <row r="5">
@@ -418,18 +418,18 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B7">
-        <v>88.72668450194998</v>
+        <v>85.25790017809645</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45134</v>
+        <v>45135</v>
       </c>
       <c r="B8">
-        <v>91.55503872110999</v>
+        <v>88.72668450194998</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,34 +378,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B2">
-        <v>84.53102172061784</v>
+        <v>80.9940118260613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B3">
-        <v>85.65839096246287</v>
+        <v>84.53102172061784</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B4">
-        <v>85.92618656023133</v>
+        <v>85.65839096246287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45136</v>
+        <v>45139</v>
       </c>
       <c r="B5">
-        <v>85.25790017809645</v>
+        <v>85.92618656023133</v>
       </c>
     </row>
     <row r="6">
@@ -426,10 +426,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45135</v>
+        <v>45136</v>
       </c>
       <c r="B8">
-        <v>88.72668450194998</v>
+        <v>85.25790017809645</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,42 +378,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B2">
-        <v>80.9940118260613</v>
+        <v>85.24004792750263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B3">
-        <v>84.53102172061784</v>
+        <v>80.9940118260613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B4">
-        <v>85.65839096246287</v>
+        <v>84.53102172061784</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B5">
-        <v>85.92618656023133</v>
+        <v>85.65839096246287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45136</v>
+        <v>45139</v>
       </c>
       <c r="B6">
-        <v>85.25790017809645</v>
+        <v>85.92618656023133</v>
       </c>
     </row>
     <row r="7">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -386,42 +386,42 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B3">
-        <v>80.9940118260613</v>
+        <v>85.24004792750263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B4">
-        <v>84.53102172061784</v>
+        <v>80.9940118260613</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B5">
-        <v>85.65839096246287</v>
+        <v>84.53102172061784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B6">
-        <v>85.92618656023133</v>
+        <v>85.65839096246287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45136</v>
+        <v>45139</v>
       </c>
       <c r="B7">
-        <v>85.25790017809645</v>
+        <v>85.92618656023133</v>
       </c>
     </row>
     <row r="8">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -394,42 +394,42 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B4">
-        <v>80.9940118260613</v>
+        <v>85.24004792750263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B5">
-        <v>84.53102172061784</v>
+        <v>80.9940118260613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B6">
-        <v>85.65839096246287</v>
+        <v>84.53102172061784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B7">
-        <v>85.92618656023133</v>
+        <v>85.65839096246287</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45136</v>
+        <v>45139</v>
       </c>
       <c r="B8">
-        <v>85.25790017809645</v>
+        <v>85.92618656023133</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,10 +378,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45143</v>
+        <v>45146</v>
       </c>
       <c r="B2">
-        <v>85.24004792750263</v>
+        <v>97.01742287349975</v>
       </c>
     </row>
     <row r="3">
@@ -402,34 +402,34 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B5">
-        <v>80.9940118260613</v>
+        <v>85.24004792750263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B6">
-        <v>84.53102172061784</v>
+        <v>80.9940118260613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B7">
-        <v>85.65839096246287</v>
+        <v>84.53102172061784</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45139</v>
+        <v>45140</v>
       </c>
       <c r="B8">
-        <v>85.92618656023133</v>
+        <v>85.65839096246287</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,18 +378,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B2">
-        <v>97.01742287349975</v>
+        <v>96.00072260037579</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45143</v>
+        <v>45146</v>
       </c>
       <c r="B3">
-        <v>85.24004792750263</v>
+        <v>97.01742287349975</v>
       </c>
     </row>
     <row r="4">
@@ -410,26 +410,26 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B6">
-        <v>80.9940118260613</v>
+        <v>85.24004792750263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B7">
-        <v>84.53102172061784</v>
+        <v>80.9940118260613</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="B8">
-        <v>85.65839096246287</v>
+        <v>84.53102172061784</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,26 +378,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B2">
-        <v>96.00072260037579</v>
+        <v>110.7309109086855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B3">
-        <v>97.01742287349975</v>
+        <v>96.00072260037579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45143</v>
+        <v>45146</v>
       </c>
       <c r="B4">
-        <v>85.24004792750263</v>
+        <v>97.01742287349975</v>
       </c>
     </row>
     <row r="5">
@@ -418,18 +418,18 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B7">
-        <v>80.9940118260613</v>
+        <v>85.24004792750263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45141</v>
+        <v>45142</v>
       </c>
       <c r="B8">
-        <v>84.53102172061784</v>
+        <v>80.9940118260613</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,34 +378,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B2">
-        <v>110.7309109086855</v>
+        <v>103.6238227562328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B3">
-        <v>96.00072260037579</v>
+        <v>110.7309109086855</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B4">
-        <v>97.01742287349975</v>
+        <v>96.00072260037579</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45143</v>
+        <v>45146</v>
       </c>
       <c r="B5">
-        <v>85.24004792750263</v>
+        <v>97.01742287349975</v>
       </c>
     </row>
     <row r="6">
@@ -426,10 +426,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45142</v>
+        <v>45143</v>
       </c>
       <c r="B8">
-        <v>80.9940118260613</v>
+        <v>85.24004792750263</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,42 +378,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B2">
-        <v>103.6238227562328</v>
+        <v>98.70036040132611</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B3">
-        <v>110.7309109086855</v>
+        <v>103.6238227562328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B4">
-        <v>96.00072260037579</v>
+        <v>110.7309109086855</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B5">
-        <v>97.01742287349975</v>
+        <v>96.00072260037579</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45143</v>
+        <v>45146</v>
       </c>
       <c r="B6">
-        <v>85.24004792750263</v>
+        <v>97.01742287349975</v>
       </c>
     </row>
     <row r="7">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -386,42 +386,42 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B3">
-        <v>103.6238227562328</v>
+        <v>98.70036040132611</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B4">
-        <v>110.7309109086855</v>
+        <v>103.6238227562328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B5">
-        <v>96.00072260037579</v>
+        <v>110.7309109086855</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B6">
-        <v>97.01742287349975</v>
+        <v>96.00072260037579</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45143</v>
+        <v>45146</v>
       </c>
       <c r="B7">
-        <v>85.24004792750263</v>
+        <v>97.01742287349975</v>
       </c>
     </row>
     <row r="8">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -394,42 +394,42 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B4">
-        <v>103.6238227562328</v>
+        <v>98.70036040132611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B5">
-        <v>110.7309109086855</v>
+        <v>103.6238227562328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B6">
-        <v>96.00072260037579</v>
+        <v>110.7309109086855</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B7">
-        <v>97.01742287349975</v>
+        <v>96.00072260037579</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45143</v>
+        <v>45146</v>
       </c>
       <c r="B8">
-        <v>85.24004792750263</v>
+        <v>97.01742287349975</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,10 +378,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45150</v>
+        <v>45153</v>
       </c>
       <c r="B2">
-        <v>98.70036040132611</v>
+        <v>95.92323774568851</v>
       </c>
     </row>
     <row r="3">
@@ -402,34 +402,34 @@
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B5">
-        <v>103.6238227562328</v>
+        <v>98.70036040132611</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B6">
-        <v>110.7309109086855</v>
+        <v>103.6238227562328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B7">
-        <v>96.00072260037579</v>
+        <v>110.7309109086855</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45146</v>
+        <v>45147</v>
       </c>
       <c r="B8">
-        <v>97.01742287349975</v>
+        <v>96.00072260037579</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,18 +378,18 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B2">
-        <v>95.92323774568851</v>
+        <v>90.46210393969035</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45150</v>
+        <v>45153</v>
       </c>
       <c r="B3">
-        <v>98.70036040132611</v>
+        <v>95.92323774568851</v>
       </c>
     </row>
     <row r="4">
@@ -410,26 +410,26 @@
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B6">
-        <v>103.6238227562328</v>
+        <v>98.70036040132611</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B7">
-        <v>110.7309109086855</v>
+        <v>103.6238227562328</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45147</v>
+        <v>45148</v>
       </c>
       <c r="B8">
-        <v>96.00072260037579</v>
+        <v>110.7309109086855</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,26 +378,26 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="B2">
-        <v>90.46210393969035</v>
+        <v>88.46510243587291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B3">
-        <v>95.92323774568851</v>
+        <v>90.46210393969035</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45150</v>
+        <v>45153</v>
       </c>
       <c r="B4">
-        <v>98.70036040132611</v>
+        <v>95.92323774568851</v>
       </c>
     </row>
     <row r="5">
@@ -418,18 +418,18 @@
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B7">
-        <v>103.6238227562328</v>
+        <v>98.70036040132611</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45148</v>
+        <v>45149</v>
       </c>
       <c r="B8">
-        <v>110.7309109086855</v>
+        <v>103.6238227562328</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,34 +378,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B2">
-        <v>88.46510243587291</v>
+        <v>85.26687955551306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="B3">
-        <v>90.46210393969035</v>
+        <v>88.46510243587291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B4">
-        <v>95.92323774568851</v>
+        <v>90.46210393969035</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45150</v>
+        <v>45153</v>
       </c>
       <c r="B5">
-        <v>98.70036040132611</v>
+        <v>95.92323774568851</v>
       </c>
     </row>
     <row r="6">
@@ -426,10 +426,10 @@
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45149</v>
+        <v>45150</v>
       </c>
       <c r="B8">
-        <v>103.6238227562328</v>
+        <v>98.70036040132611</v>
       </c>
     </row>
   </sheetData>

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -378,42 +378,42 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45156</v>
+        <v>45157</v>
       </c>
       <c r="B2">
-        <v>85.26687955551306</v>
+        <v>84.48423091922086</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B3">
-        <v>88.46510243587291</v>
+        <v>85.26687955551306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="B4">
-        <v>90.46210393969035</v>
+        <v>88.46510243587291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B5">
-        <v>95.92323774568851</v>
+        <v>90.46210393969035</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45150</v>
+        <v>45153</v>
       </c>
       <c r="B6">
-        <v>98.70036040132611</v>
+        <v>95.92323774568851</v>
       </c>
     </row>
     <row r="7">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -386,42 +386,42 @@
     </row>
     <row r="3">
       <c r="A3" s="2">
-        <v>45156</v>
+        <v>45157</v>
       </c>
       <c r="B3">
-        <v>85.26687955551306</v>
+        <v>84.48423091922086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B4">
-        <v>88.46510243587291</v>
+        <v>85.26687955551306</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="B5">
-        <v>90.46210393969035</v>
+        <v>88.46510243587291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B6">
-        <v>95.92323774568851</v>
+        <v>90.46210393969035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45150</v>
+        <v>45153</v>
       </c>
       <c r="B7">
-        <v>98.70036040132611</v>
+        <v>95.92323774568851</v>
       </c>
     </row>
     <row r="8">

--- a/previsoes.xlsx
+++ b/previsoes.xlsx
@@ -394,42 +394,42 @@
     </row>
     <row r="4">
       <c r="A4" s="2">
-        <v>45156</v>
+        <v>45157</v>
       </c>
       <c r="B4">
-        <v>85.26687955551306</v>
+        <v>84.48423091922086</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
-        <v>45155</v>
+        <v>45156</v>
       </c>
       <c r="B5">
-        <v>88.46510243587291</v>
+        <v>85.26687955551306</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2">
-        <v>45154</v>
+        <v>45155</v>
       </c>
       <c r="B6">
-        <v>90.46210393969035</v>
+        <v>88.46510243587291</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2">
-        <v>45153</v>
+        <v>45154</v>
       </c>
       <c r="B7">
-        <v>95.92323774568851</v>
+        <v>90.46210393969035</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>45150</v>
+        <v>45153</v>
       </c>
       <c r="B8">
-        <v>98.70036040132611</v>
+        <v>95.92323774568851</v>
       </c>
     </row>
   </sheetData>
